--- a/학습자료/단답형/한국사 종합.xlsx
+++ b/학습자료/단답형/한국사 종합.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5110" uniqueCount="2660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5272" uniqueCount="2671">
   <si>
     <t>질문</t>
   </si>
@@ -8145,6 +8145,48 @@
   </si>
   <si>
     <t>한반도 최고(古) 구석기 유적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업적 농업 장려, 한전론-토지소유 상한선, 용전론 주장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청에 다녀온 경험담, 조선과 청의 문화 비교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과농소초 저술 (1799년, 정조)</t>
+  </si>
+  <si>
+    <t>열하일기 저술</t>
+  </si>
+  <si>
+    <t>박지원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북학의 저술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산과 소비를 우물물에 비유하여 절약보다는 소비를 권장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양반의 상업 종사, 세계 무역 참여, 서양의 기하학 및 과학기술 수용 주장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박제가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지원 vs 박제가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연표 : 고려 무신정권</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8517,14 +8559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1703"/>
+  <dimension ref="A1:D1757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1667" workbookViewId="0">
-      <selection activeCell="B1704" sqref="B1704"/>
+    <sheetView tabSelected="1" topLeftCell="A1692" workbookViewId="0">
+      <selection activeCell="D1711" sqref="D1711:D1757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="49.625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29110,7 +29153,7 @@
     </row>
     <row r="1471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
-        <v>2336</v>
+        <v>2661</v>
       </c>
       <c r="B1471" t="s">
         <v>2337</v>
@@ -29194,7 +29237,7 @@
     </row>
     <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>2348</v>
+        <v>2660</v>
       </c>
       <c r="B1477" t="s">
         <v>2349</v>
@@ -32332,6 +32375,741 @@
       </c>
       <c r="D1703" t="s">
         <v>2657</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1704" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1705" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1706" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1707" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1708" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1709" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1710" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1711" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1711">
+        <v>0</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1712" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1712">
+        <v>0</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1713" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1713">
+        <v>0</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1714" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1714">
+        <v>0</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1715" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1715">
+        <v>0</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1716" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1716">
+        <v>0</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1717" t="s">
+        <v>544</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1717">
+        <v>0</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1718" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1718">
+        <v>0</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1719" t="s">
+        <v>547</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1719">
+        <v>0</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1720" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1720">
+        <v>0</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1721" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1721">
+        <v>0</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1722" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1722">
+        <v>-1</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1723" t="s">
+        <v>554</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1723">
+        <v>0</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1724" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1724">
+        <v>0</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1725" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1725">
+        <v>0</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1726" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1726">
+        <v>0</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1727" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1727">
+        <v>0</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1728" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1728">
+        <v>0</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1729" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1729">
+        <v>0</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1730" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1730">
+        <v>0</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1731" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1731">
+        <v>0</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1732" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1732">
+        <v>0</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1733" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1733">
+        <v>0</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1734" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1734">
+        <v>0</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1735" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1735">
+        <v>0</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1736" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1736">
+        <v>0</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1737" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1737">
+        <v>0</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1738" t="s">
+        <v>580</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1738">
+        <v>0</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1739" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1739">
+        <v>0</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1740" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1740">
+        <v>0</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1741" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1741">
+        <v>0</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1742" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1742">
+        <v>0</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1743" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1743">
+        <v>0</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1744" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1744">
+        <v>0</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1745" t="s">
+        <v>591</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1745">
+        <v>0</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1746" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1746">
+        <v>0</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1747" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>596</v>
+      </c>
+      <c r="C1747">
+        <v>0</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1748" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1748">
+        <v>0</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1749" t="s">
+        <v>599</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1749">
+        <v>0</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1750" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1750">
+        <v>0</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1751" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1751">
+        <v>0</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1752" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1752">
+        <v>0</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1753" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1753">
+        <v>0</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1754" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1754">
+        <v>0</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1755" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1755">
+        <v>0</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1756" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>611</v>
+      </c>
+      <c r="C1756">
+        <v>0</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1757" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1757">
+        <v>0</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>2670</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한국사 종합.xlsx
+++ b/학습자료/단답형/한국사 종합.xlsx
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -7307,7 +7307,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -14787,7 +14787,7 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="C875" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="C899" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="C968" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -20913,7 +20913,7 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -21855,7 +21855,7 @@
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -21915,7 +21915,7 @@
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
@@ -25095,7 +25095,7 @@
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="C1286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         </is>
       </c>
       <c r="C1297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         </is>
       </c>
       <c r="C1327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         </is>
       </c>
       <c r="C1404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         </is>
       </c>
       <c r="C1428" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -29321,7 +29321,7 @@
         </is>
       </c>
       <c r="C1444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         </is>
       </c>
       <c r="C1462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         </is>
       </c>
       <c r="C1488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         </is>
       </c>
       <c r="C1491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         </is>
       </c>
       <c r="C1492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
@@ -30361,7 +30361,7 @@
         </is>
       </c>
       <c r="C1496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
@@ -30561,7 +30561,7 @@
         </is>
       </c>
       <c r="C1506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
@@ -30621,7 +30621,7 @@
         </is>
       </c>
       <c r="C1509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
@@ -30661,7 +30661,7 @@
         </is>
       </c>
       <c r="C1511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1511" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         </is>
       </c>
       <c r="C1512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
@@ -31320,7 +31320,7 @@
         </is>
       </c>
       <c r="C1542" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1542" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
@@ -31788,8 +31788,7 @@
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>서광범갑신정변 :
- 김옥균, 박영효, 홍영식, 서광범 등은 우정국 개국 축하연을 틈타 사대당 요인들을 살해하고 개화당 정부 수립</t>
+          <t>서광범</t>
         </is>
       </c>
       <c r="C1563" t="n">
@@ -32957,7 +32956,7 @@
         </is>
       </c>
       <c r="C1618" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1618" t="inlineStr">
         <is>
@@ -34117,7 +34116,7 @@
         </is>
       </c>
       <c r="C1676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1676" t="inlineStr">
         <is>
@@ -34237,7 +34236,7 @@
         </is>
       </c>
       <c r="C1682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1682" t="inlineStr">
         <is>
@@ -34317,7 +34316,7 @@
         </is>
       </c>
       <c r="C1686" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1686" t="inlineStr">
         <is>
@@ -34637,7 +34636,7 @@
         </is>
       </c>
       <c r="C1702" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1702" t="inlineStr">
         <is>
@@ -34757,7 +34756,7 @@
         </is>
       </c>
       <c r="C1708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1708" t="inlineStr">
         <is>
@@ -35377,7 +35376,7 @@
         </is>
       </c>
       <c r="C1739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1739" t="inlineStr">
         <is>

--- a/학습자료/단답형/한국사 종합.xlsx
+++ b/학습자료/단답형/한국사 종합.xlsx
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -10587,7 +10587,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -12147,7 +12147,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -13567,7 +13567,7 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         </is>
       </c>
       <c r="C737" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -17067,7 +17067,7 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -17487,7 +17487,7 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -17667,7 +17667,7 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         </is>
       </c>
       <c r="C939" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -21415,7 +21415,7 @@
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
@@ -23815,7 +23815,7 @@
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
@@ -24055,7 +24055,7 @@
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
@@ -25275,7 +25275,7 @@
         </is>
       </c>
       <c r="C1242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1242" t="inlineStr">
         <is>
@@ -25555,7 +25555,7 @@
         </is>
       </c>
       <c r="C1256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         </is>
       </c>
       <c r="C1261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
@@ -25835,7 +25835,7 @@
         </is>
       </c>
       <c r="C1270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
@@ -25875,7 +25875,7 @@
         </is>
       </c>
       <c r="C1272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         </is>
       </c>
       <c r="C1273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1273" t="inlineStr">
         <is>
@@ -25915,7 +25915,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -25955,7 +25955,7 @@
         </is>
       </c>
       <c r="C1276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         </is>
       </c>
       <c r="C1281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
@@ -26755,7 +26755,7 @@
         </is>
       </c>
       <c r="C1316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
@@ -26935,7 +26935,7 @@
         </is>
       </c>
       <c r="C1325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         </is>
       </c>
       <c r="C1328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
@@ -27015,7 +27015,7 @@
         </is>
       </c>
       <c r="C1329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         </is>
       </c>
       <c r="C1337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
@@ -27375,7 +27375,7 @@
         </is>
       </c>
       <c r="C1347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         </is>
       </c>
       <c r="C1348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -27715,7 +27715,7 @@
         </is>
       </c>
       <c r="C1364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
@@ -27935,7 +27935,7 @@
         </is>
       </c>
       <c r="C1375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="C1376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         </is>
       </c>
       <c r="C1405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         </is>
       </c>
       <c r="C1410" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         </is>
       </c>
       <c r="C1420" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
@@ -28961,7 +28961,7 @@
         </is>
       </c>
       <c r="C1426" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         </is>
       </c>
       <c r="C1430" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         </is>
       </c>
       <c r="C1434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         </is>
       </c>
       <c r="C1453" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
@@ -29741,7 +29741,7 @@
         </is>
       </c>
       <c r="C1465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
@@ -29841,7 +29841,7 @@
         </is>
       </c>
       <c r="C1470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         </is>
       </c>
       <c r="C1476" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -30281,7 +30281,7 @@
         </is>
       </c>
       <c r="C1492" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
@@ -30541,7 +30541,7 @@
         </is>
       </c>
       <c r="C1505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="C1527" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1527" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         </is>
       </c>
       <c r="C1541" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1541" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1560" t="inlineStr">
         <is>
@@ -31750,7 +31750,7 @@
         </is>
       </c>
       <c r="C1561" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1561" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         </is>
       </c>
       <c r="C1569" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1569" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="C1570" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1570" t="inlineStr">
         <is>
@@ -31963,7 +31963,7 @@
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1571" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="C1572" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1572" t="inlineStr">
         <is>
@@ -32341,7 +32341,7 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1588" t="inlineStr">
         <is>
@@ -32532,7 +32532,7 @@
         </is>
       </c>
       <c r="C1597" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1597" t="inlineStr">
         <is>
@@ -32576,7 +32576,7 @@
         </is>
       </c>
       <c r="C1599" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1599" t="inlineStr">
         <is>
@@ -32676,7 +32676,7 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1642" t="inlineStr">
         <is>
@@ -33556,7 +33556,7 @@
         </is>
       </c>
       <c r="C1648" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1648" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         </is>
       </c>
       <c r="C1658" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1658" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         </is>
       </c>
       <c r="C1668" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1668" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         </is>
       </c>
       <c r="C1672" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1672" t="inlineStr">
         <is>
@@ -34136,7 +34136,7 @@
         </is>
       </c>
       <c r="C1677" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1677" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1680" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         </is>
       </c>
       <c r="C1683" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1683" t="inlineStr">
         <is>
@@ -34396,7 +34396,7 @@
         </is>
       </c>
       <c r="C1690" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1690" t="inlineStr">
         <is>
@@ -34436,7 +34436,7 @@
         </is>
       </c>
       <c r="C1692" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1692" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         </is>
       </c>
       <c r="C1700" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1700" t="inlineStr">
         <is>
@@ -34616,7 +34616,7 @@
         </is>
       </c>
       <c r="C1701" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1701" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         </is>
       </c>
       <c r="C1708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1708" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         </is>
       </c>
       <c r="C1712" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1712" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         </is>
       </c>
       <c r="C1728" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1728" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         </is>
       </c>
       <c r="C1729" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1729" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         </is>
       </c>
       <c r="C1730" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1730" t="inlineStr">
         <is>
@@ -35256,7 +35256,7 @@
         </is>
       </c>
       <c r="C1733" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1733" t="inlineStr">
         <is>
@@ -35276,7 +35276,7 @@
         </is>
       </c>
       <c r="C1734" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1734" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         </is>
       </c>
       <c r="C1741" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1741" t="inlineStr">
         <is>
@@ -35636,7 +35636,7 @@
         </is>
       </c>
       <c r="C1752" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1752" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         </is>
       </c>
       <c r="C1757" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1757" t="inlineStr">
         <is>

--- a/학습자료/단답형/한국사 종합.xlsx
+++ b/학습자료/단답형/한국사 종합.xlsx
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7647,7 +7647,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9947,7 +9947,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -15187,7 +15187,7 @@
         </is>
       </c>
       <c r="C738" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         </is>
       </c>
       <c r="C801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="C839" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         </is>
       </c>
       <c r="C890" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         </is>
       </c>
       <c r="C912" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         </is>
       </c>
       <c r="C926" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -19152,7 +19152,7 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -19692,7 +19692,7 @@
         </is>
       </c>
       <c r="C963" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -19892,7 +19892,7 @@
         </is>
       </c>
       <c r="C973" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -21555,7 +21555,7 @@
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -21815,7 +21815,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -22115,7 +22115,7 @@
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -22755,7 +22755,7 @@
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
@@ -22875,7 +22875,7 @@
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
@@ -23875,7 +23875,7 @@
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>(조선) 최초 교육 기관</t>
+          <t>(조선) 최고 교육 기관</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -24115,7 +24115,7 @@
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         </is>
       </c>
       <c r="C1245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1245" t="inlineStr">
         <is>
@@ -26015,7 +26015,7 @@
         </is>
       </c>
       <c r="C1279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         </is>
       </c>
       <c r="C1293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1293" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -26615,7 +26615,7 @@
         </is>
       </c>
       <c r="C1309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         </is>
       </c>
       <c r="C1330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
@@ -27215,7 +27215,7 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         </is>
       </c>
       <c r="C1341" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
@@ -27495,7 +27495,7 @@
         </is>
       </c>
       <c r="C1353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         </is>
       </c>
       <c r="C1354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         </is>
       </c>
       <c r="C1356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         </is>
       </c>
       <c r="C1379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         </is>
       </c>
       <c r="C1384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         </is>
       </c>
       <c r="C1411" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -28761,7 +28761,7 @@
         </is>
       </c>
       <c r="C1416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         </is>
       </c>
       <c r="C1432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="C1438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         </is>
       </c>
       <c r="C1446" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         </is>
       </c>
       <c r="C1450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         </is>
       </c>
       <c r="C1477" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         </is>
       </c>
       <c r="C1479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
@@ -30041,7 +30041,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -30061,7 +30061,7 @@
         </is>
       </c>
       <c r="C1481" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="C1503" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         </is>
       </c>
       <c r="C1507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
@@ -30848,7 +30848,7 @@
         </is>
       </c>
       <c r="C1520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
@@ -30960,7 +30960,7 @@
         </is>
       </c>
       <c r="C1525" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
@@ -31637,7 +31637,7 @@
         </is>
       </c>
       <c r="C1556" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1556" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1560" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>삼례 집회 1892 :
+          <t>1892 :
  교조 신원과 정부의 동학 탄압 중지 및 포교의 자유 요구</t>
         </is>
       </c>
@@ -31868,7 +31868,7 @@
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>서울 복합 상소서울 복합 상소 1893,2 :
+          <t>1893,2 :
  궁궐 앞에서 외국인의 철수와 교조 신원 요구 집회 개최</t>
         </is>
       </c>
@@ -31878,7 +31878,7 @@
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1567" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>보은 집회보은 집회 1893,3 :
+          <t>1893,3 :
  탐관오리 숙청, 외세 배척 등을 요구 ⇒ ‘제폭구민, 보국안민, 척왜양창의’(정치 운동으로 변화)</t>
         </is>
       </c>
@@ -31910,7 +31910,7 @@
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>금구 집회금구 집회 1893,3 : 전봉준과 남접 중심으로 서울 진공 계획</t>
+          <t>1893,3 : 전봉준과 남접 중심으로 서울 진공 계획</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
@@ -32676,7 +32676,7 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         </is>
       </c>
       <c r="C1609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1609" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1632" t="inlineStr">
         <is>
@@ -33356,7 +33356,7 @@
         </is>
       </c>
       <c r="C1638" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1638" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1642" t="inlineStr">
         <is>
@@ -34196,7 +34196,7 @@
         </is>
       </c>
       <c r="C1680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1680" t="inlineStr">
         <is>
@@ -34216,7 +34216,7 @@
         </is>
       </c>
       <c r="C1681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1681" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         </is>
       </c>
       <c r="C1684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1684" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         </is>
       </c>
       <c r="C1688" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1688" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         </is>
       </c>
       <c r="C1699" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1699" t="inlineStr">
         <is>
@@ -34736,7 +34736,7 @@
         </is>
       </c>
       <c r="C1707" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1707" t="inlineStr">
         <is>
@@ -34796,7 +34796,7 @@
         </is>
       </c>
       <c r="C1710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1710" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         </is>
       </c>
       <c r="C1715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1715" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         </is>
       </c>
       <c r="C1717" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1717" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         </is>
       </c>
       <c r="C1719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1719" t="inlineStr">
         <is>
@@ -35396,7 +35396,7 @@
         </is>
       </c>
       <c r="C1740" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1740" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         </is>
       </c>
       <c r="C1748" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1748" t="inlineStr">
         <is>

--- a/학습자료/단답형/한국사 종합.xlsx
+++ b/학습자료/단답형/한국사 종합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1757"/>
+  <dimension ref="A1:D1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -8187,7 +8187,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -17887,7 +17887,7 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -22615,7 +22615,7 @@
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         </is>
       </c>
       <c r="C1296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1296" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         </is>
       </c>
       <c r="C1312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         </is>
       </c>
       <c r="C1321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         </is>
       </c>
       <c r="C1363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
@@ -28681,7 +28681,7 @@
         </is>
       </c>
       <c r="C1412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         </is>
       </c>
       <c r="C1479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         </is>
       </c>
       <c r="C1487" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
@@ -31153,7 +31153,7 @@
         </is>
       </c>
       <c r="C1534" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1534" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         </is>
       </c>
       <c r="C1609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1609" t="inlineStr">
         <is>
@@ -32856,7 +32856,7 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1613" t="inlineStr">
         <is>
@@ -33236,7 +33236,7 @@
         </is>
       </c>
       <c r="C1632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1632" t="inlineStr">
         <is>
@@ -33396,7 +33396,7 @@
         </is>
       </c>
       <c r="C1640" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1640" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
         </is>
       </c>
       <c r="C1642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1642" t="inlineStr">
         <is>
@@ -33536,7 +33536,7 @@
         </is>
       </c>
       <c r="C1647" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1647" t="inlineStr">
         <is>
@@ -33636,7 +33636,7 @@
         </is>
       </c>
       <c r="C1652" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D1652" t="inlineStr">
         <is>
@@ -34976,7 +34976,7 @@
         </is>
       </c>
       <c r="C1719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1719" t="inlineStr">
         <is>
@@ -35741,6 +35741,3984 @@
       <c r="D1757" t="inlineStr">
         <is>
           <t>연표 : 고려 무신정권</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>조선총독부 설치</t>
+        </is>
+      </c>
+      <c r="B1758" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>총독부 중추원 관제 공포</t>
+        </is>
+      </c>
+      <c r="B1759" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>덕수궁 석조전 건립</t>
+        </is>
+      </c>
+      <c r="B1760" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>조선광문회 설립</t>
+        </is>
+      </c>
+      <c r="B1761" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>회사령 제정</t>
+        </is>
+      </c>
+      <c r="B1762" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>범죄 즉결례 제정</t>
+        </is>
+      </c>
+      <c r="B1763" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>안악 사건</t>
+        </is>
+      </c>
+      <c r="B1764" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>유인석 이상설 이범윤 등 성명회 설립</t>
+        </is>
+      </c>
+      <c r="B1765" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>유인석 이상설 이범윤 등 연해주 13도 의군 창설</t>
+        </is>
+      </c>
+      <c r="B1766" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>105인 사건</t>
+        </is>
+      </c>
+      <c r="B1767" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>제1차 조선교육령 제정</t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>사립학교 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>어업령 제정</t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>이회영 이시영 이상룡 등 경학사 설립</t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>이회영 이시영 이동녕 등 남만주 신흥 강습소 설립</t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>서일 중광단 결성</t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1773" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>권업회 결성</t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1774" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>사찰령 제정</t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1775" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>도로 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B1776" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1776" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>토지 조사 사업</t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1777" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>조선 태형령 제정</t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1778" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>경찰범 처벌 규칙 제정</t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>상하이 동제사 결성</t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>경학사 부민단으로 변경</t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>권업회 한민학교 설립</t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>임병찬 독립의군부 결성</t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>송죽회 결성</t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>안창호 흥사단 결성</t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>김약연 간민회 결성</t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>1913</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>기성단 결성</t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>백산상회 설립</t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>호남선 경원선 건설</t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>이상설 이동휘 등 대한광복군 정부 설립</t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>박용만 하와이 대조선 국민군단 창설</t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>지세령 제정</t>
+        </is>
+      </c>
+      <c r="B1792" t="n">
+        <v>1914</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>조선국권회복단 결성</t>
+        </is>
+      </c>
+      <c r="B1793" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>채기중 박상진 대한광복회 결성</t>
+        </is>
+      </c>
+      <c r="B1794" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>박용만 조선국민회 결성</t>
+        </is>
+      </c>
+      <c r="B1795" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1795" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>조선산직장려계 결성</t>
+        </is>
+      </c>
+      <c r="B1796" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1796" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>박은식 신규식 상하이 대동보국단 결성</t>
+        </is>
+      </c>
+      <c r="B1797" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1797" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>신한혁명당 결성</t>
+        </is>
+      </c>
+      <c r="B1798" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1798" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>광업령 제정</t>
+        </is>
+      </c>
+      <c r="B1799" t="n">
+        <v>1915</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1799" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>원불교 창시</t>
+        </is>
+      </c>
+      <c r="B1800" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1800" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>문창범 등 전로 한족회 중앙 총회 창설</t>
+        </is>
+      </c>
+      <c r="B1801" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1801" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>신한 혁명당의 대동단결 선언</t>
+        </is>
+      </c>
+      <c r="B1802" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1802" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>임야조사령 제정</t>
+        </is>
+      </c>
+      <c r="B1803" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1803" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>서당규칙 제정</t>
+        </is>
+      </c>
+      <c r="B1804" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1804" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>조선식산은행 설립</t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1805" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>이동휘 한인사회당 결성</t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1806" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>김규식 여운형 신채호 등 신한청년당 결성</t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>1918</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1807" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>신한 청년당 파리강화회의 김규식 파견</t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1808" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>고종 서거</t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1809" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>무오 독립 선언</t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1810" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>조선청년독립단 결성</t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1811" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>28 독립 선언</t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1812" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>이승만의 국제연맹 위임통치청원</t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1813" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>부민단 한족회로 변경</t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1814" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>간민회 대한 국민회로 변경</t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1815" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>31 운동</t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1816" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>연해주 대한국민의회 수립</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1817" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>상하이 임시정부 수립</t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1818" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>한성정부 수립</t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1819" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>이륭양행 설립</t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1820" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>파리 장서 사건</t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1821" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>서로군정서 설치</t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1822" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>이회영 이동녕 이시영 등 신흥무관학교 설립</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1823" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>임시정부 통합 및 대한민국 임시정부 수립</t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1824" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>임시정부 1차 개헌</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1825" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>워싱턴 구미 위원부 설치</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1826" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>강우규 사이토 총독 암살 시도</t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1827" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>김원봉 의열단 결성</t>
+        </is>
+      </c>
+      <c r="B1828" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1828" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>서일 김좌진 등 북로군정서 설치</t>
+        </is>
+      </c>
+      <c r="B1829" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1829" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>천마산대 결성</t>
+        </is>
+      </c>
+      <c r="B1830" t="n">
+        <v>1919</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1830" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>산미 증식 계획 실행</t>
+        </is>
+      </c>
+      <c r="B1831" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1831" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>조선일보 동아일보 창간</t>
+        </is>
+      </c>
+      <c r="B1832" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1832" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>회사령 폐지 및 신고제 전환</t>
+        </is>
+      </c>
+      <c r="B1833" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1833" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>홍범도 등 봉오동 전투</t>
+        </is>
+      </c>
+      <c r="B1834" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1834" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>이상재 등 조선교육회 설립</t>
+        </is>
+      </c>
+      <c r="B1835" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1835" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>구월산대 결성</t>
+        </is>
+      </c>
+      <c r="B1836" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1836" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>보합단 결성</t>
+        </is>
+      </c>
+      <c r="B1837" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1837" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>임시정부 광복군 사령부 설립</t>
+        </is>
+      </c>
+      <c r="B1838" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1838" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>박재혁 부산경찰서 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B1839" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1839" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>훈춘 사건</t>
+        </is>
+      </c>
+      <c r="B1840" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1840" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>홍범도 김좌진 등 청산리 전투</t>
+        </is>
+      </c>
+      <c r="B1841" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1841" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>간도 참변</t>
+        </is>
+      </c>
+      <c r="B1842" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1842" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>대한독립군단 결성</t>
+        </is>
+      </c>
+      <c r="B1843" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1843" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>최수봉 밀양경찰서 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B1844" t="n">
+        <v>1920</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1844" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>자유시 참변</t>
+        </is>
+      </c>
+      <c r="B1845" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>김익상 조선총독부 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B1846" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>연초전매령 실시</t>
+        </is>
+      </c>
+      <c r="B1847" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>조선어연구회 설립</t>
+        </is>
+      </c>
+      <c r="B1848" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>임시정부 연통제 와해</t>
+        </is>
+      </c>
+      <c r="B1849" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>방정환 소년 운동</t>
+        </is>
+      </c>
+      <c r="B1850" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>제2차 조선교육령 시행</t>
+        </is>
+      </c>
+      <c r="B1851" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>안창남 고국 방문 비행</t>
+        </is>
+      </c>
+      <c r="B1852" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>대한 통의부 결성</t>
+        </is>
+      </c>
+      <c r="B1853" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>천도교 제2 독립선언 계획</t>
+        </is>
+      </c>
+      <c r="B1854" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>안창호 여운형 박용만 신채호 등 국민대표회의 개최</t>
+        </is>
+      </c>
+      <c r="B1855" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>신채호 조선혁명선언 작성</t>
+        </is>
+      </c>
+      <c r="B1856" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>참의부 설립</t>
+        </is>
+      </c>
+      <c r="B1857" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>일본 상품에 대한 관세 철폐</t>
+        </is>
+      </c>
+      <c r="B1858" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>물산 장려 운동</t>
+        </is>
+      </c>
+      <c r="B1859" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>민립대학 설립 운동</t>
+        </is>
+      </c>
+      <c r="B1860" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1860" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>자치론 대두</t>
+        </is>
+      </c>
+      <c r="B1861" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1861" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>조선형평사 설립</t>
+        </is>
+      </c>
+      <c r="B1862" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1862" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>암태도 소작쟁의</t>
+        </is>
+      </c>
+      <c r="B1863" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1863" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>김상옥 종로경찰서 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B1864" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1864" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>관동 대학살</t>
+        </is>
+      </c>
+      <c r="B1865" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1865" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>관세령 폐지</t>
+        </is>
+      </c>
+      <c r="B1866" t="n">
+        <v>1923</v>
+      </c>
+      <c r="C1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1866" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>경성제국대학 설립</t>
+        </is>
+      </c>
+      <c r="B1867" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1867" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>김지섭 일본 왕궁 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B1868" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1868" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>이광수 민족적 경륜 기고</t>
+        </is>
+      </c>
+      <c r="B1869" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>조선청년총동맹 결성</t>
+        </is>
+      </c>
+      <c r="B1870" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1870" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>신채호 조선사연구초 저술</t>
+        </is>
+      </c>
+      <c r="B1871" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1871" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>정의부 설립</t>
+        </is>
+      </c>
+      <c r="B1872" t="n">
+        <v>1924</v>
+      </c>
+      <c r="C1872" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>신민부 설립</t>
+        </is>
+      </c>
+      <c r="B1873" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1873" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>박은식 임시정부 2대 대통령 취임</t>
+        </is>
+      </c>
+      <c r="B1874" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1874" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>임시정부 2차 개헌</t>
+        </is>
+      </c>
+      <c r="B1875" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1875" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>조선공산당 창당</t>
+        </is>
+      </c>
+      <c r="B1876" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>치안 유지법 제정</t>
+        </is>
+      </c>
+      <c r="B1877" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1877" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>미쓰야 협정</t>
+        </is>
+      </c>
+      <c r="B1878" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1878" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>조선사편수회 설치</t>
+        </is>
+      </c>
+      <c r="B1879" t="n">
+        <v>1925</v>
+      </c>
+      <c r="C1879" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>수양동우회 결성</t>
+        </is>
+      </c>
+      <c r="B1880" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1880" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>정우회 선언</t>
+        </is>
+      </c>
+      <c r="B1881" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1881" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>610 만세운동</t>
+        </is>
+      </c>
+      <c r="B1882" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1882" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>조선민흥회 결성</t>
+        </is>
+      </c>
+      <c r="B1883" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1883" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>안창호 등 한국 독립 유일당 북경 촉성회 결성</t>
+        </is>
+      </c>
+      <c r="B1884" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1884" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1884" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>나운규 영화 아리랑 발표</t>
+        </is>
+      </c>
+      <c r="B1885" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1885" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1885" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>나석주 동양척식주식회사 조선식산은행 폭탄 투척</t>
+        </is>
+      </c>
+      <c r="B1886" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1886" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1886" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>부전강 수력 발전소 건설</t>
+        </is>
+      </c>
+      <c r="B1887" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C1887" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1887" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>흥남 질소 비료 공장 건설</t>
+        </is>
+      </c>
+      <c r="B1888" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1888" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1888" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>신간회 창립</t>
+        </is>
+      </c>
+      <c r="B1889" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1889" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1889" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>근우회 설립</t>
+        </is>
+      </c>
+      <c r="B1890" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1890" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1890" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>임시정부 3차 개헌</t>
+        </is>
+      </c>
+      <c r="B1891" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1891" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1891" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>신은행령 제정</t>
+        </is>
+      </c>
+      <c r="B1892" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1892" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1892" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>김좌진 지청천 등 혁신의회 결성</t>
+        </is>
+      </c>
+      <c r="B1893" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C1893" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1893" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>원산 노동자 총파업</t>
+        </is>
+      </c>
+      <c r="B1894" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1894" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1894" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>국민부 결성</t>
+        </is>
+      </c>
+      <c r="B1895" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1895" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1895" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>조선혁명당 결성</t>
+        </is>
+      </c>
+      <c r="B1896" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1896" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1896" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>조선혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B1897" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1897" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1897" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>광주 학생 항일운동</t>
+        </is>
+      </c>
+      <c r="B1898" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1898" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1898" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>조선일보 문자 보급 운동</t>
+        </is>
+      </c>
+      <c r="B1899" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1899" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1899" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>조소앙 등 한국독립당 설립</t>
+        </is>
+      </c>
+      <c r="B1900" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1900" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1900" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>한국독립군 조직</t>
+        </is>
+      </c>
+      <c r="B1901" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1901" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1901" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>청구학회 결성</t>
+        </is>
+      </c>
+      <c r="B1902" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1902" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>동아일보 브나로드 운동</t>
+        </is>
+      </c>
+      <c r="B1903" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1903" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>만보산 사건</t>
+        </is>
+      </c>
+      <c r="B1904" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1904" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>만주 사변</t>
+        </is>
+      </c>
+      <c r="B1905" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1905" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>신간회 해소</t>
+        </is>
+      </c>
+      <c r="B1906" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1906" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>김구 한인애국단 결성</t>
+        </is>
+      </c>
+      <c r="B1907" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1907" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>조선어학회 설립</t>
+        </is>
+      </c>
+      <c r="B1908" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1908" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>신채호 조선상고사 저술</t>
+        </is>
+      </c>
+      <c r="B1909" t="n">
+        <v>1931</v>
+      </c>
+      <c r="C1909" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>이봉창 일본 국왕 암살 시도</t>
+        </is>
+      </c>
+      <c r="B1910" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1910" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>상하이 사변</t>
+        </is>
+      </c>
+      <c r="B1911" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1911" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>만주국 수립</t>
+        </is>
+      </c>
+      <c r="B1912" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1912" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>쌍성보 전투</t>
+        </is>
+      </c>
+      <c r="B1913" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1913" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>영릉가 전투</t>
+        </is>
+      </c>
+      <c r="B1914" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1914" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>윤봉길 훙커우 공원 의거</t>
+        </is>
+      </c>
+      <c r="B1915" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1915" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>농촌 진흥 운동</t>
+        </is>
+      </c>
+      <c r="B1916" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1916" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>항일 유격대 조직</t>
+        </is>
+      </c>
+      <c r="B1917" t="n">
+        <v>1932</v>
+      </c>
+      <c r="C1917" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1917" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>일본에서 민정문서 발견</t>
+        </is>
+      </c>
+      <c r="B1918" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1918" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1918" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>동북인민혁명군 조직</t>
+        </is>
+      </c>
+      <c r="B1919" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1919" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1919" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>신한독립당 결성</t>
+        </is>
+      </c>
+      <c r="B1920" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1920" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1920" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>대전자령 동경성 사도하자 전투</t>
+        </is>
+      </c>
+      <c r="B1921" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1921" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1921" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>흥경성 전투</t>
+        </is>
+      </c>
+      <c r="B1922" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1922" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1922" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>남면북양 정책</t>
+        </is>
+      </c>
+      <c r="B1923" t="n">
+        <v>1933</v>
+      </c>
+      <c r="C1923" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1923" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>이병도 손진태 등 진단학회 설립</t>
+        </is>
+      </c>
+      <c r="B1924" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C1924" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1924" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>조선학 운동</t>
+        </is>
+      </c>
+      <c r="B1925" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1925" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>민족혁명당 창설</t>
+        </is>
+      </c>
+      <c r="B1926" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C1926" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1926" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>김구 등 한국국민당 설립</t>
+        </is>
+      </c>
+      <c r="B1927" t="n">
+        <v>1935</v>
+      </c>
+      <c r="C1927" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1927" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>동북항일연군 결성</t>
+        </is>
+      </c>
+      <c r="B1928" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1928" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1928" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>조국광복회 설립</t>
+        </is>
+      </c>
+      <c r="B1929" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1929" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1929" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>안익태 애국가 작곡</t>
+        </is>
+      </c>
+      <c r="B1930" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1930" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1930" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>조선 사상범 보호 관찰령 제정</t>
+        </is>
+      </c>
+      <c r="B1931" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1931" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1931" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>동아일보 일장기 삭제 보도</t>
+        </is>
+      </c>
+      <c r="B1932" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1932" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1932" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>신사 참배 강요</t>
+        </is>
+      </c>
+      <c r="B1933" t="n">
+        <v>1936</v>
+      </c>
+      <c r="C1933" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1933" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>대화숙 설치</t>
+        </is>
+      </c>
+      <c r="B1934" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1934" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1934" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>황국 신민 서사 제정</t>
+        </is>
+      </c>
+      <c r="B1935" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1935" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1935" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>조선민족혁명당 결성</t>
+        </is>
+      </c>
+      <c r="B1936" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1936" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1936" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>보천보 전투</t>
+        </is>
+      </c>
+      <c r="B1937" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1937" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1937" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>중일 전쟁</t>
+        </is>
+      </c>
+      <c r="B1938" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1938" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1938" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>소련 한국인 강제 이주</t>
+        </is>
+      </c>
+      <c r="B1939" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1939" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>한국광복운동단체 연합회 결성</t>
+        </is>
+      </c>
+      <c r="B1940" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1940" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1940" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>조선민족전선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B1941" t="n">
+        <v>1937</v>
+      </c>
+      <c r="C1941" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1941" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>김원봉 조선의용대 조직</t>
+        </is>
+      </c>
+      <c r="B1942" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1942" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1942" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>제3차 조선교육령 시행</t>
+        </is>
+      </c>
+      <c r="B1943" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1943" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1943" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>지원병제도 실시</t>
+        </is>
+      </c>
+      <c r="B1944" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1944" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1944" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>국가 총동원법 시행</t>
+        </is>
+      </c>
+      <c r="B1945" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1945" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1945" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>조선 의용대 결성</t>
+        </is>
+      </c>
+      <c r="B1946" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1946" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>근로 보국대 창설</t>
+        </is>
+      </c>
+      <c r="B1947" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1947" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1947" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>국민정신총동원 조선연맹 결성</t>
+        </is>
+      </c>
+      <c r="B1948" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1948" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1948" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>전국연합진선협회 결성</t>
+        </is>
+      </c>
+      <c r="B1949" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C1949" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1949" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>국민 징용령 실시</t>
+        </is>
+      </c>
+      <c r="B1950" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C1950" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1950" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>임금 통제령 실시</t>
+        </is>
+      </c>
+      <c r="B1951" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C1951" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1951" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>창씨개명 강요</t>
+        </is>
+      </c>
+      <c r="B1952" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C1952" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1952" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>공출제도 실시</t>
+        </is>
+      </c>
+      <c r="B1953" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1953" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>산미 증식 계획 재실행</t>
+        </is>
+      </c>
+      <c r="B1954" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1954" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1954" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>조선일보 동아일보 폐간</t>
+        </is>
+      </c>
+      <c r="B1955" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1955" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1955" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>국민복령 제정</t>
+        </is>
+      </c>
+      <c r="B1956" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1956" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1956" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>한국독립당 결성</t>
+        </is>
+      </c>
+      <c r="B1957" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1957" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1957" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>임시정부 충칭 정착</t>
+        </is>
+      </c>
+      <c r="B1958" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1958" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1958" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>한국광복군 창설</t>
+        </is>
+      </c>
+      <c r="B1959" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1959" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1959" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>임시정부 4차 개헌</t>
+        </is>
+      </c>
+      <c r="B1960" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1960" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1960" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>국민학교령 제정</t>
+        </is>
+      </c>
+      <c r="B1961" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1961" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1961" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>대한민국 건국 강령 발표</t>
+        </is>
+      </c>
+      <c r="B1962" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1962" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>생활필수품 통제령 발표</t>
+        </is>
+      </c>
+      <c r="B1963" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1963" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>조선의용대 화북지대 결성</t>
+        </is>
+      </c>
+      <c r="B1964" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1964" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t xml:space="preserve">태평양 전쟁 발발 </t>
+        </is>
+      </c>
+      <c r="B1965" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1965" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>임시정부 대일 선전 포고</t>
+        </is>
+      </c>
+      <c r="B1966" t="n">
+        <v>1941</v>
+      </c>
+      <c r="C1966" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>조선독립동맹 결성</t>
+        </is>
+      </c>
+      <c r="B1967" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C1967" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>조선의용군 조직</t>
+        </is>
+      </c>
+      <c r="B1968" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C1968" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>조선의용대 한국광복군 합류</t>
+        </is>
+      </c>
+      <c r="B1969" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C1969" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>조선어 학회 사건</t>
+        </is>
+      </c>
+      <c r="B1970" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C1970" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>제4차 조선교육령 시행</t>
+        </is>
+      </c>
+      <c r="B1971" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C1971" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>광복군 인도-미얀마 전선에 투입</t>
+        </is>
+      </c>
+      <c r="B1972" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C1972" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>학도 지원병제도 실시</t>
+        </is>
+      </c>
+      <c r="B1973" t="n">
+        <v>1943</v>
+      </c>
+      <c r="C1973" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>임시정부 5차 개헌</t>
+        </is>
+      </c>
+      <c r="B1974" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>징병제도 실시</t>
+        </is>
+      </c>
+      <c r="B1975" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>여자 정신 근로령 실시</t>
+        </is>
+      </c>
+      <c r="B1976" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>경성부민관 의거</t>
+        </is>
+      </c>
+      <c r="B1977" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C1977" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>815 광복</t>
+        </is>
+      </c>
+      <c r="B1978" t="n">
+        <v>1945</v>
+      </c>
+      <c r="C1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>연표 : 일제강점기</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/한국사 종합.xlsx
+++ b/학습자료/단답형/한국사 종합.xlsx
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         </is>
       </c>
       <c r="C1277" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
@@ -31473,7 +31473,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>1912</v>
       </c>
       <c r="C1780" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1780" t="inlineStr">
         <is>
@@ -36240,7 +36240,7 @@
         <v>1913</v>
       </c>
       <c r="C1785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1785" t="inlineStr">
         <is>
@@ -36438,7 +36438,7 @@
         <v>1915</v>
       </c>
       <c r="C1796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1796" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>1919</v>
       </c>
       <c r="C1811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1811" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>1919</v>
       </c>
       <c r="C1830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1830" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>1921</v>
       </c>
       <c r="C1848" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1848" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>1925</v>
       </c>
       <c r="C1879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1879" t="inlineStr">
         <is>
@@ -38076,7 +38076,7 @@
         <v>1926</v>
       </c>
       <c r="C1887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1887" t="inlineStr">
         <is>
@@ -38220,7 +38220,7 @@
         <v>1929</v>
       </c>
       <c r="C1895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1895" t="inlineStr">
         <is>
@@ -38346,7 +38346,7 @@
         <v>1930</v>
       </c>
       <c r="C1902" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1902" t="inlineStr">
         <is>
@@ -38652,7 +38652,7 @@
         <v>1933</v>
       </c>
       <c r="C1919" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1919" t="inlineStr">
         <is>
@@ -38688,7 +38688,7 @@
         <v>1933</v>
       </c>
       <c r="C1921" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1921" t="inlineStr">
         <is>
@@ -38832,7 +38832,7 @@
         <v>1936</v>
       </c>
       <c r="C1929" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1929" t="inlineStr">
         <is>
@@ -39696,7 +39696,7 @@
         <v>1945</v>
       </c>
       <c r="C1977" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1977" t="inlineStr">
         <is>
